--- a/project/HW2/22127310/release/22127310_BugReport.xlsx
+++ b/project/HW2/22127310/release/22127310_BugReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhthuy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhthuy/Documents/Testing-PRJ-SM/project/HW2/22127310/release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B35E6-0AAE-EA49-880A-8D0E72EE4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454DEFC-966A-9245-B8C3-2CAE00159736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
   <si>
     <t>Tester</t>
   </si>
@@ -1181,6 +1181,18 @@
 4. Enter valid billing details.
 5. Select "Buy Now Pay Later".
 6. Click Proceed to Payment.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Trivial</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1261,13 +1273,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1276,27 +1282,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1335,6 +1351,18 @@
         <color theme="1"/>
       </font>
       <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1698,8 +1726,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:M36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:N36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Defect ID" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Defect Title" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Defect Description" dataDxfId="11"/>
@@ -1708,7 +1736,8 @@
     <tableColumn id="7" xr3:uid="{ACDC4036-2AFE-8741-B938-4C882D635CA7}" name="Actual Result" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{538B3C11-634B-9443-BF24-DD5F74863919}" name="Screenshots" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Function ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Severity" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7F7C74B9-E67B-C741-BC60-B0D22D903146}" name="Severity" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priority" dataDxfId="5"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Reported By" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Reported" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status" dataDxfId="2"/>
@@ -2017,27 +2046,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>45811</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2051,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="110" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2076,7 +2105,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2105,1382 +2134,1455 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="9" t="e" vm="1">
+      <c r="G2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="7">
         <v>45811</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="9" t="e" vm="2">
+      <c r="G3" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="7">
         <v>45811</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="9" t="e" vm="3">
+      <c r="G4" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="7">
         <v>45811</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="9" t="e" vm="4">
+      <c r="G5" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="7">
         <v>45811</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="9" t="e" vm="3">
+      <c r="G6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="7">
         <v>45811</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="9" t="e" vm="5">
+      <c r="G7" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="7">
         <v>45811</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="9" t="e" vm="6">
+      <c r="G8" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="7">
         <v>45811</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="9" t="e" vm="7">
+      <c r="G9" s="1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="7">
         <v>45811</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="9" t="e" vm="8">
+      <c r="G10" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="7">
         <v>45811</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="9" t="e" vm="9">
+      <c r="G11" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="7">
         <v>45811</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="9" t="e" vm="10">
+      <c r="G12" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="7">
         <v>45811</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="9" t="e" vm="11">
+      <c r="G13" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="7">
         <v>45811</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="9" t="e" vm="12">
+      <c r="G14" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="7">
         <v>45811</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="9" t="e" vm="13">
+      <c r="G15" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="7">
         <v>45811</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="9" t="e" vm="14">
+      <c r="G16" s="1" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="7">
         <v>45811</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="M16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="9" t="e" vm="15">
+      <c r="G17" s="1" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="7">
         <v>45811</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="9" t="e" vm="16">
+      <c r="G18" s="1" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="7">
         <v>45811</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="9" t="e" vm="16">
+      <c r="G19" s="1" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="7">
         <v>45811</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="9" t="e" vm="17">
+      <c r="G20" s="1" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="7">
         <v>45811</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="9" t="e" vm="18">
+      <c r="G21" s="1" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="7">
         <v>45811</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="9" t="e" vm="19">
+      <c r="G22" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L22" s="7">
         <v>45811</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="9" t="e" vm="20">
+      <c r="G23" s="1" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="7">
         <v>45811</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="9" t="e" vm="21">
+      <c r="G24" s="1" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="7">
         <v>45811</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="9" t="e" vm="22">
+      <c r="G25" s="1" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="7">
         <v>45811</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="9" t="e" vm="23">
+      <c r="G26" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="7">
         <v>45811</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="M26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="9" t="e" vm="24">
+      <c r="G27" s="1" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="K27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="7">
         <v>45811</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="9" t="e" vm="25">
+      <c r="G28" s="1" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="7">
         <v>45811</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="9" t="e" vm="26">
+      <c r="G29" s="1" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="7">
         <v>45811</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="9" t="e" vm="27">
+      <c r="G30" s="1" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="10">
+      <c r="L30" s="7">
         <v>45811</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="9" t="e" vm="28">
+      <c r="G31" s="1" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="K31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K31" s="10">
+      <c r="L31" s="7">
         <v>45811</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="9" t="e" vm="29">
+      <c r="G32" s="1" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="7">
         <v>45811</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="9" t="e" vm="30">
+      <c r="G33" s="1" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="7">
         <v>45811</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="9" t="e" vm="31">
+      <c r="G34" s="1" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="7">
         <v>45811</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="9" t="e" vm="32">
+      <c r="G35" s="1" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="7">
         <v>45811</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="9" t="e" vm="33">
+      <c r="G36" s="1" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="7">
         <v>45811</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K37" s="3"/>
